--- a/medicine/Enfance/Domitille_de_Pressensé/Domitille_de_Pressensé.xlsx
+++ b/medicine/Enfance/Domitille_de_Pressensé/Domitille_de_Pressensé.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Domitille_de_Pressens%C3%A9</t>
+          <t>Domitille_de_Pressensé</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Domitille de Pressensé, née à Nantes en 1952, est auteure et illustratrice française d'albums pour la jeunesse. Elle vit à Paris.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Domitille_de_Pressens%C3%A9</t>
+          <t>Domitille_de_Pressensé</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Domitille de Pressensé est née en février 1952 à Nantes, où elle a fait ses études. Elle a commencé sa carrière au milieu des années 1970 avec la série des Émilie alors qu’elle était encore en 4e année de l'École des beaux-arts. La série s'arrête au milieu des années 1980.
 Domitille de Pressensé crée ensuite le personnage de Naftaline. En 1998, l'illustratrice lance une nouvelle série : Loup-Rouge. En 2008, les albums d'Émilie sont réédités chez Casterman. Émilie fête son anniversaire est le dernier album paru.
-En 2012, la série Émilie est, de nouveau[1], adaptée à la télévision sur France 5[2]. L'animation comporte 52 épisodes de trois minutes relatant la vie quotidienne d'Émilie. La série est produite par Studiolito et Blue Spirit, diffusée sur France 5.
+En 2012, la série Émilie est, de nouveau, adaptée à la télévision sur France 5. L'animation comporte 52 épisodes de trois minutes relatant la vie quotidienne d'Émilie. La série est produite par Studiolito et Blue Spirit, diffusée sur France 5.
 Depuis 2013, la nouvelle collection , « Je commence à lire avec Émilie », reprend certains épisodes de l'animation sous forme de petits livres niveau CP.
 En 2015, sort la nouvelle collection d'éveil « J'apprends avec Émilie » pour les tout-petits. Cette même année un recueil voit le jour : Petites histoires avant d'aller dormir.
 </t>
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Domitille_de_Pressens%C3%A9</t>
+          <t>Domitille_de_Pressensé</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,9 +560,11 @@
           <t>Prix et distinctions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>1978 : (international) « Honour List »[3], de l' IBBY, catégorie Illustration, pour Émilie et Émilie et ses cousins</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>1978 : (international) « Honour List », de l' IBBY, catégorie Illustration, pour Émilie et Émilie et ses cousins</t>
         </is>
       </c>
     </row>
@@ -558,7 +574,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Domitille_de_Pressens%C3%A9</t>
+          <t>Domitille_de_Pressensé</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -578,13 +594,53 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Série Le Petit Village
-Les Dix ans de Stanislas. Paris : Éditions G.P., 1978, 24 p. (Le Petit village ; 1).  (ISBN 2-261-00543-1) -  (ISBN 9782261005444)
+          <t>Série Le Petit Village</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Les Dix ans de Stanislas. Paris : Éditions G.P., 1978, 24 p. (Le Petit village ; 1).  (ISBN 2-261-00543-1) -  (ISBN 9782261005444)
 Julie la flemme. Paris : Rouge et or, 1979, p.  (ISBN 9782261005888)
 Julie ni grande ni petite. Paris : Rouge et or, 1980, p.  (ISBN 9782261007684)
 Le Rapt du Père Noël. Paris : Rouge et or, 1980, p.  (ISBN 9782261007691)
-Florent, le tireur de sonnettes. Paris : Rouge et or, 1980, p.  (ISBN 9782261005444)
-Série Émilie
+Florent, le tireur de sonnettes. Paris : Rouge et or, 1980, p.  (ISBN 9782261005444)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Domitille_de_Pressensé</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Domitille_de_Pressens%C3%A9</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Série Émilie</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Éditions G.P., collection "Or et bleue"
 Émilie. Paris : Éditions G.P., 1975, 29 p. (Or et bleue)
 Émilie et Arthur
@@ -641,10 +697,10 @@
 Le Bateau d'Émilie. Paris : G. P., 1985, 28 p. (Or et bleue ; 50).  (ISBN 2-261-01687-5)
 Le Château de sable d'Émilie. Paris : GP, 1987, 26 p. (Or et bleue ; 55).  (ISBN 2-261-02029-5)
 Livre-valise Émilie
-Le Panier d'Émilie. Paris : Rouge et or, 1989, 6 p. (Livre-valise Émilie ; [1]).  (ISBN 2-261-02737-0)
-Émilie se lève. Paris : Rouge et or, 1989, 6 p. (Livre-valise Émilie ; [2]).  (ISBN 2-261-02736-2)
-La Poche d'Émilie. Paris : Rouge et or, 1989, 6 p. (Livre-valise Émilie ; [3]).  (ISBN 2-261-02738-9)
-La Chambre d'Émilie. Paris : Rouge et or, 1989, 6 p. (Livre-valise Émilie ; [4]).  (ISBN 2-261-02735-4)
+Le Panier d'Émilie. Paris : Rouge et or, 1989, 6 p. (Livre-valise Émilie ; ).  (ISBN 2-261-02737-0)
+Émilie se lève. Paris : Rouge et or, 1989, 6 p. (Livre-valise Émilie ; ).  (ISBN 2-261-02736-2)
+La Poche d'Émilie. Paris : Rouge et or, 1989, 6 p. (Livre-valise Émilie ; ).  (ISBN 2-261-02738-9)
+La Chambre d'Émilie. Paris : Rouge et or, 1989, 6 p. (Livre-valise Émilie ; ).  (ISBN 2-261-02735-4)
 Pocket, collection "Kid pocket"
 L'Invitation surprise. Paris : Pocket, 1993, 29 p. (Kid pocket ; 4).  (ISBN 2-266-05795-2)
 Arthur a disparu. Paris : Pocket, 1994, 29 p. (Kid pocket ; 33).  (ISBN 2-266-05783-9)
@@ -655,22 +711,125 @@
 Émilie ne veut pas manger. Paris : Pocket, 1995, 29 p. (Kid pocket ; 150).  (ISBN 2-266-06822-9)
 Émilie, Alexandre et l'hôpital. Paris : Pocket, 1996, 29 p. (Kid pocket ; 181).  (ISBN 2-266-07069-X)
 Émilie n'aime plus Élise. Paris : Pocket, 1996, 29 p. (Kid pocket ; 239).  (ISBN 2-266-07129-7)
-Série Max dans la rue
-Max au jardin public. Paris : Nathan, 1995, p.  (ISBN 9782092753545)
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Domitille_de_Pressensé</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Domitille_de_Pressens%C3%A9</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Série Max dans la rue</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Max au jardin public. Paris : Nathan, 1995, p.  (ISBN 9782092753545)
 Max perd son ballon. Paris : Nathan, 1994, p.  (ISBN 9782092753552)
 Max sur le chemin de l'école. Paris : Nathan, 1995, p.  (ISBN 9782092753569)
-Max est fatigué. Paris : Nathan, 1995, p.  (ISBN 9782092753538)
-Série Naftaline
-Naftaline. Paris : Rouge et or, 1988, 26 p.  (ISBN 2-261-02306-5)
+Max est fatigué. Paris : Nathan, 1995, p.  (ISBN 9782092753538)</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Domitille_de_Pressensé</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Domitille_de_Pressens%C3%A9</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Série Naftaline</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Naftaline. Paris : Rouge et or, 1988, 26 p.  (ISBN 2-261-02306-5)
 Petit monstre. Paris : Rouge et or, 1988, 28 p.  (ISBN 2-261-02308-1)
 Les gribouillages de Naftaline. Paris : Rouge et or, 1988, 28 p.  (ISBN 2-261-02309-X)
 Une fessée pour Naftaline. Paris : Rouge et or, 1988, 26 p.  (ISBN 2-261-02307-3)
 Le microbe. Paris : Rouge et or, 1988, 26 p.  (ISBN 2-261-02628-5)
 Je vais le dire à ma mère. Paris : Rouge et or, 1989, 26 p.  (ISBN 2-261-02627-7)
 Le perroquet. Paris : Rouge et or, 1989, 26 p.  (ISBN 2-261-02741-9)
-Histoire de fées. Paris : Rouge et or, 1990, 26 p.  (ISBN 2-261-03065-7)
-Série Loup-Rouge
-Loup-Rouge, 1998, Pocket-jeunesse
+Histoire de fées. Paris : Rouge et or, 1990, 26 p.  (ISBN 2-261-03065-7)</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Domitille_de_Pressensé</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Domitille_de_Pressens%C3%A9</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Série Loup-Rouge</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Loup-Rouge, 1998, Pocket-jeunesse
 Loup-Rouge, petit garou, 1998
 Loup-Rouge et Lili Chaperon rouge, 1999
 Loup-Rouge et Lapin-Lapin, 1999
@@ -682,31 +841,33 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Domitille_de_Pressens%C3%A9</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Domitille_de_Pressensé</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
         <is>
           <t>Portail:Enfance/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Domitille_de_Pressens%C3%A9</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>Filmographie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t>Dessins animés
 1979 : Émilie. Réalisation Raymond Burlet. Scénario et dessin Domitille de Pressensé. Musique Philippe Noël. Voix : Jackie Berger, Carine François, Jules-Henri Marchant.
@@ -715,31 +876,33 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Domitille_de_Pressens%C3%A9</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Domitille_de_Pressensé</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
         <is>
           <t>Portail:Enfance/Articles liés</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="D11" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Domitille_de_Pressens%C3%A9</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>Vidéographie</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
         <is>
           <t>Émilie. Réalisation Raymond Burlet. [S.l.] : Adès vidéo [éd.], 1982. 1 cass. vidéo (VHS) (1 h 04 min) : coul. (SECAM) + 1 brochure (15 p. ; ill. en n. et b. ; 19 cm). (Lanterne magique). LM1006 (référence éditoriale) (boîte)</t>
         </is>
